--- a/Réseau/RACI.xlsx
+++ b/Réseau/RACI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminfernandez/OneDrive - Reseau-GES/2eme Année/Projet Annuel/Réseau/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminfernandez/Documents/GitHub/worknshare/Réseau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045C0E77-7443-0B46-B6F0-4384021EAA23}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A724BD-B9B2-7C46-999A-D928BE41502D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28520" windowHeight="16480" xr2:uid="{035B88AE-29B3-F343-805D-6C1620C44E3C}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28520" windowHeight="16260" xr2:uid="{035B88AE-29B3-F343-805D-6C1620C44E3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="60">
   <si>
     <t>Tâche</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Analyse des risques</t>
-  </si>
-  <si>
-    <t>Méthode EBIOS</t>
   </si>
   <si>
     <t>Méthode Mehari</t>
@@ -972,39 +969,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1020,19 +993,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1087,9 +1048,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1108,12 +1066,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1132,12 +1084,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1156,12 +1102,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1176,9 +1116,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1201,18 +1138,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1228,9 +1153,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1243,51 +1165,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1602,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E150B4EF-2D80-B741-8443-B6A71276DA8C}">
-  <dimension ref="B1:J52"/>
+  <dimension ref="B1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1622,1186 +1616,1163 @@
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8" t="s">
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18" t="s">
+      <c r="I3" s="105"/>
+      <c r="J3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="82"/>
     </row>
     <row r="5" spans="2:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
+      <c r="F5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="30"/>
+      <c r="E7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49" t="s">
+      <c r="B8" s="75"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
+      <c r="E8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49" t="s">
+      <c r="B9" s="75"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="53"/>
+      <c r="E9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49" t="s">
+      <c r="B10" s="75"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
+      <c r="E10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49" t="s">
+      <c r="B11" s="75"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
+      <c r="E11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="54" t="s">
+      <c r="B12" s="75"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
+      <c r="E12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="55"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="88"/>
+      <c r="C13" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="61"/>
-      <c r="J13" s="39"/>
-    </row>
-    <row r="14" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="62" t="s">
+      <c r="D13" s="106"/>
+      <c r="E13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="44"/>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="30"/>
+      <c r="E15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49" t="s">
+      <c r="B16" s="75"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="53"/>
+      <c r="E16" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49" t="s">
+      <c r="B17" s="75"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="53"/>
+      <c r="E17" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49" t="s">
+      <c r="B18" s="75"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="53"/>
+      <c r="E18" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49" t="s">
+      <c r="B19" s="75"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="53"/>
+      <c r="E19" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="38"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49" t="s">
+      <c r="B20" s="75"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="53"/>
+      <c r="E20" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="49" t="s">
+      <c r="B21" s="75"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="39"/>
-    </row>
-    <row r="22" spans="2:10" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
-      <c r="C22" s="2" t="s">
+      <c r="E21" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="27"/>
+    </row>
+    <row r="22" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="75"/>
+      <c r="C22" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="68"/>
-    </row>
-    <row r="23" spans="2:10" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="71" t="s">
+      <c r="E22" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="49"/>
+    </row>
+    <row r="23" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="75"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="76"/>
-      <c r="J23" s="77"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="40" t="s">
+      <c r="E23" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="56"/>
+      <c r="J23" s="57"/>
+    </row>
+    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="55"/>
-      <c r="C25" s="80" t="s">
+      <c r="D24" s="98"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="33"/>
+      <c r="J24" s="50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="61"/>
-      <c r="J25" s="82" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B26" s="40" t="s">
+      <c r="C25" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D25" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="83" t="s">
+      <c r="E25" s="29"/>
+      <c r="F25" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="J25" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="75"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="46"/>
-      <c r="J26" s="30" t="s">
+      <c r="E26" s="13"/>
+      <c r="F26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="84" t="s">
+      <c r="B27" s="75"/>
+      <c r="C27" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="47"/>
-      <c r="C28" s="63" t="s">
+      <c r="D27" s="92"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="37"/>
+      <c r="J27" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="75"/>
+      <c r="C28" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="47"/>
-      <c r="C29" s="48" t="s">
+      <c r="D28" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="E28" s="13"/>
+      <c r="F28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="75"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="53" t="s">
+      <c r="E29" s="38"/>
+      <c r="F29" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="84" t="s">
+      <c r="B30" s="75"/>
+      <c r="C30" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53" t="s">
+      <c r="D30" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="40"/>
+      <c r="F30" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="66"/>
+      <c r="J30" s="27" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="47"/>
-      <c r="C31" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="88" t="s">
+      <c r="B31" s="88"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="48"/>
+      <c r="J31" s="49"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="91"/>
-      <c r="J31" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="55"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="67"/>
-      <c r="J32" s="68"/>
+      <c r="C32" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="40" t="s">
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="74" t="s">
+      <c r="H33" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="75"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="75"/>
+      <c r="C38" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="H33" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="49" t="s">
+      <c r="D38" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="49" t="s">
+      <c r="E38" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="26"/>
+      <c r="J38" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="49" t="s">
+      <c r="E39" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="26"/>
+      <c r="J39" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="49" t="s">
+      <c r="E40" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="26"/>
+      <c r="J40" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="47"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="49" t="s">
+      <c r="E41" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="26"/>
+      <c r="J41" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" s="53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="47"/>
-      <c r="C39" s="95" t="s">
+      <c r="E42" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="44"/>
+      <c r="J42" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="38"/>
-      <c r="J39" s="53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="38"/>
-      <c r="J40" s="53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="38"/>
-      <c r="J41" s="53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="38"/>
-      <c r="J42" s="53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="61"/>
-      <c r="J43" s="39" t="s">
+      <c r="C43" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="48"/>
+      <c r="J43" s="50" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="47" t="s">
+      <c r="B44" s="75"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="26"/>
+      <c r="J44" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="75"/>
+      <c r="C45" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="67"/>
-      <c r="J44" s="69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="47"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" s="38"/>
-      <c r="J45" s="53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B46" s="47"/>
-      <c r="C46" s="95" t="s">
+      <c r="D45" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="96" t="s">
+      <c r="E45" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="26"/>
+      <c r="J45" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="38"/>
-      <c r="J46" s="53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="96" t="s">
+      <c r="E46" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="26"/>
+      <c r="J46" s="58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="38"/>
-      <c r="J47" s="82" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="19" t="s">
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="80"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="97"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="70"/>
+      <c r="J48" s="50" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="98" t="s">
+      <c r="B49" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="99"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" s="100"/>
-      <c r="J49" s="69" t="s">
+      <c r="C49" s="83"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="72"/>
+      <c r="J49" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="101" t="s">
+      <c r="B50" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="102"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" s="104"/>
-      <c r="J50" s="53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="101" t="s">
+      <c r="C50" s="83"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="72"/>
+      <c r="J50" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="102"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="104"/>
-      <c r="J51" s="53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="105" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="106"/>
-      <c r="D52" s="107"/>
-      <c r="E52" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" s="108"/>
-      <c r="J52" s="39" t="s">
+      <c r="C51" s="85"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="74"/>
+      <c r="J51" s="27" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="C49:D52"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B33:B43"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B15:B23"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
+  <mergeCells count="26">
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B32:B42"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="C48:D51"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
